--- a/biomass-backend/src/main/resources/templates/record-template.xlsx
+++ b/biomass-backend/src/main/resources/templates/record-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="监测时间T1-各样方红树林碳储量计算" sheetId="11" r:id="rId1"/>
@@ -777,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,6 +789,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1129,279 +1132,285 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.353982300885" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.02654867256637" style="3"/>
-    <col min="3" max="3" width="11.8230088495575" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.02654867256637" style="3"/>
-    <col min="6" max="6" width="12.6814159292035" customWidth="1"/>
+    <col min="1" max="1" width="11.35" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.825" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.025" style="3"/>
+    <col min="6" max="6" width="12.6833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5">
+        <v>45059</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="6">
+        <v>100</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customFormat="1" spans="4:6">
       <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="13.9" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
         <v>1.5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
         <v>1.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <v>2.5</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
         <v>2.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
         <v>2.5</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
         <v>2.5</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1409,6 +1418,9 @@
       <c r="A19" s="3">
         <v>2</v>
       </c>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1596,228 +1608,230 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
-        <v>3</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="10">
+        <v>3</v>
+      </c>
+      <c r="B34" s="10">
+        <v>13</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10">
-        <v>5</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="10"/>
+      <c r="E34" s="11">
+        <v>5</v>
+      </c>
+      <c r="F34" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9">
-        <v>3</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="10">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9">
-        <v>3</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="10">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10">
+      <c r="D36" s="10"/>
+      <c r="E36" s="11">
         <v>1.5</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="10">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9">
-        <v>3</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="10">
+        <v>3</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="10"/>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9">
-        <v>3</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="10">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10">
-        <v>2</v>
-      </c>
-      <c r="F39" s="10">
+      <c r="D39" s="10"/>
+      <c r="E39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9">
-        <v>3</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="10">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9">
-        <v>3</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="10">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10">
+      <c r="D41" s="10"/>
+      <c r="E41" s="11">
         <v>1.5</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="10">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9">
-        <v>3</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="10">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10">
-        <v>2</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
-        <v>3</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="10">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10">
+      <c r="D44" s="10"/>
+      <c r="E44" s="11">
         <v>3.5</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9">
-        <v>3</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="10">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10">
+      <c r="D45" s="10"/>
+      <c r="E45" s="11">
         <v>2.5</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="10">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10">
+      <c r="D46" s="10"/>
+      <c r="E46" s="11">
         <v>2.5</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="10">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="10">
+        <v>3</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10">
+      <c r="D48" s="10"/>
+      <c r="E48" s="11">
         <v>2.5</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="11">
         <v>5</v>
       </c>
     </row>
@@ -1837,279 +1851,285 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.353982300885" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.02654867256637" style="3"/>
-    <col min="3" max="3" width="11.8230088495575" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.02654867256637" style="3"/>
-    <col min="6" max="6" width="12.6814159292035" customWidth="1"/>
+    <col min="1" max="1" width="11.35" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="3"/>
+    <col min="3" max="3" width="11.825" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.025" style="3"/>
+    <col min="6" max="6" width="12.6833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5">
+        <v>45064</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="6">
+        <v>300</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customFormat="1" spans="4:6">
       <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="13.9" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
         <v>1.5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
         <v>1.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <v>2.5</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
         <v>2.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
         <v>2.5</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
         <v>2.5</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2117,6 +2137,9 @@
       <c r="A19" s="3">
         <v>2</v>
       </c>
+      <c r="B19" s="3">
+        <v>20</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2304,228 +2327,230 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
-        <v>3</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="10">
+        <v>3</v>
+      </c>
+      <c r="B34" s="10">
+        <v>30</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10">
-        <v>5</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="10"/>
+      <c r="E34" s="11">
+        <v>5</v>
+      </c>
+      <c r="F34" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9">
-        <v>3</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="10">
+        <v>3</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9">
-        <v>3</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="10">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10">
+      <c r="D36" s="10"/>
+      <c r="E36" s="11">
         <v>1.5</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="10">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9">
-        <v>3</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="10">
+        <v>3</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="10"/>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9">
-        <v>3</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="10">
+        <v>3</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10">
-        <v>2</v>
-      </c>
-      <c r="F39" s="10">
+      <c r="D39" s="10"/>
+      <c r="E39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9">
-        <v>3</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="10">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9">
-        <v>3</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
+      <c r="A41" s="10">
+        <v>3</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10">
+      <c r="D41" s="10"/>
+      <c r="E41" s="11">
         <v>1.5</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="10">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9">
-        <v>3</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="10">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10">
-        <v>2</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
-        <v>3</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="10">
+        <v>3</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10">
+      <c r="D44" s="10"/>
+      <c r="E44" s="11">
         <v>3.5</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9">
-        <v>3</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="10">
+        <v>3</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10">
+      <c r="D45" s="10"/>
+      <c r="E45" s="11">
         <v>2.5</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="10">
+        <v>3</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10">
+      <c r="D46" s="10"/>
+      <c r="E46" s="11">
         <v>2.5</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="10">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9">
-        <v>3</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="10">
+        <v>3</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10">
+      <c r="D48" s="10"/>
+      <c r="E48" s="11">
         <v>2.5</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2546,15 +2571,15 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.3362831858407" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.0796460176991" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3362831858407" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.66371681415929" style="1"/>
+    <col min="1" max="1" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
